--- a/s100a13.xlsx
+++ b/s100a13.xlsx
@@ -744,7 +744,7 @@
         <v>96</v>
       </c>
       <c r="D2">
-        <v>0.6157834150040635</v>
+        <v>0.5986978522983674</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -758,7 +758,7 @@
         <v>97</v>
       </c>
       <c r="D3">
-        <v>0.7266619222853365</v>
+        <v>0.7118277098879643</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -772,7 +772,7 @@
         <v>98</v>
       </c>
       <c r="D4">
-        <v>1.078062040494439</v>
+        <v>1.07036288775717</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -786,7 +786,7 @@
         <v>99</v>
       </c>
       <c r="D5">
-        <v>1.883846757311263</v>
+        <v>1.892508788676575</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -800,7 +800,7 @@
         <v>100</v>
       </c>
       <c r="D6">
-        <v>2.399185541883164</v>
+        <v>2.418311351666723</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -814,7 +814,7 @@
         <v>101</v>
       </c>
       <c r="D7">
-        <v>0.9909274546647747</v>
+        <v>0.9814590638534793</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -828,7 +828,7 @@
         <v>102</v>
       </c>
       <c r="D8">
-        <v>0.972699863786388</v>
+        <v>0.9628613679533866</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -842,7 +842,7 @@
         <v>103</v>
       </c>
       <c r="D9">
-        <v>0.2730756029399829</v>
+        <v>0.2490314748885411</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -856,7 +856,7 @@
         <v>104</v>
       </c>
       <c r="D10">
-        <v>2.563146623565343</v>
+        <v>2.585601607242467</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -870,7 +870,7 @@
         <v>105</v>
       </c>
       <c r="D11">
-        <v>2.35895162238532</v>
+        <v>2.377260496143245</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -884,7 +884,7 @@
         <v>106</v>
       </c>
       <c r="D12">
-        <v>1.102706735628439</v>
+        <v>1.095507985028149</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -898,7 +898,7 @@
         <v>96</v>
       </c>
       <c r="D13">
-        <v>0.4800939993699857</v>
+        <v>0.4602533093162172</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -912,7 +912,7 @@
         <v>97</v>
       </c>
       <c r="D14">
-        <v>0.7522167516701094</v>
+        <v>0.7379014213755474</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -926,7 +926,7 @@
         <v>98</v>
       </c>
       <c r="D15">
-        <v>1.672532516810131</v>
+        <v>1.676903884527721</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -940,7 +940,7 @@
         <v>99</v>
       </c>
       <c r="D16">
-        <v>2.257232846954185</v>
+        <v>2.273476355637811</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -954,7 +954,7 @@
         <v>100</v>
       </c>
       <c r="D17">
-        <v>3.196841163342625</v>
+        <v>3.232163098717535</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -968,7 +968,7 @@
         <v>101</v>
       </c>
       <c r="D18">
-        <v>1.673900137424928</v>
+        <v>1.678299274213083</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -982,7 +982,7 @@
         <v>102</v>
       </c>
       <c r="D19">
-        <v>0.7229482570129295</v>
+        <v>0.7080386399076382</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -996,7 +996,7 @@
         <v>103</v>
       </c>
       <c r="D20">
-        <v>0.9785395516214418</v>
+        <v>0.9688196286600486</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1010,7 +1010,7 @@
         <v>104</v>
       </c>
       <c r="D21">
-        <v>1.082288025062011</v>
+        <v>1.074674679501377</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1024,7 +1024,7 @@
         <v>105</v>
       </c>
       <c r="D22">
-        <v>1.985126946894679</v>
+        <v>1.995845437998101</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1038,7 +1038,7 @@
         <v>107</v>
       </c>
       <c r="D23">
-        <v>0.6564185112702698</v>
+        <v>0.6401580303477873</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1052,7 +1052,7 @@
         <v>96</v>
       </c>
       <c r="D24">
-        <v>0.183727335104611</v>
+        <v>0.1578690209203321</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1066,7 +1066,7 @@
         <v>97</v>
       </c>
       <c r="D25">
-        <v>0.6999606202743718</v>
+        <v>0.6845842470381768</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1080,7 +1080,7 @@
         <v>98</v>
       </c>
       <c r="D26">
-        <v>1.301177521119092</v>
+        <v>1.298008652188963</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1094,7 +1094,7 @@
         <v>99</v>
       </c>
       <c r="D27">
-        <v>1.717333604477253</v>
+        <v>1.722614643013884</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1108,7 +1108,7 @@
         <v>100</v>
       </c>
       <c r="D28">
-        <v>0.9652073522367598</v>
+        <v>0.9552167235098281</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1122,7 +1122,7 @@
         <v>101</v>
       </c>
       <c r="D29">
-        <v>0.7911780681622144</v>
+        <v>0.7776538341228959</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1136,7 +1136,7 @@
         <v>102</v>
       </c>
       <c r="D30">
-        <v>0.4822566211334</v>
+        <v>0.4624598423776209</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1150,7 +1150,7 @@
         <v>103</v>
       </c>
       <c r="D31">
-        <v>0.6947258066181855</v>
+        <v>0.6792431422744725</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1164,7 +1164,7 @@
         <v>104</v>
       </c>
       <c r="D32">
-        <v>1.124735813196426</v>
+        <v>1.117984355509712</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1178,7 +1178,7 @@
         <v>105</v>
       </c>
       <c r="D33">
-        <v>0.9245215158425639</v>
+        <v>0.9137047750714096</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1192,7 +1192,7 @@
         <v>108</v>
       </c>
       <c r="D34">
-        <v>1.402921902754921</v>
+        <v>1.401818918824353</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1206,7 +1206,7 @@
         <v>96</v>
       </c>
       <c r="D35">
-        <v>1.048173732406783</v>
+        <v>1.039867707758282</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1220,7 +1220,7 @@
         <v>97</v>
       </c>
       <c r="D36">
-        <v>1.002261910445234</v>
+        <v>0.9930236618963274</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1234,7 +1234,7 @@
         <v>98</v>
       </c>
       <c r="D37">
-        <v>0.548177583991053</v>
+        <v>0.5297193079234289</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1248,7 +1248,7 @@
         <v>99</v>
       </c>
       <c r="D38">
-        <v>1.829003859587024</v>
+        <v>1.836552324601848</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1262,7 +1262,7 @@
         <v>100</v>
       </c>
       <c r="D39">
-        <v>0.2248607202362135</v>
+        <v>0.1998376054207673</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1276,7 +1276,7 @@
         <v>101</v>
       </c>
       <c r="D40">
-        <v>0.6860613560189244</v>
+        <v>0.6704027629582182</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1290,7 +1290,7 @@
         <v>102</v>
       </c>
       <c r="D41">
-        <v>0.8138016609581493</v>
+        <v>0.8007367912615282</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1304,7 +1304,7 @@
         <v>103</v>
       </c>
       <c r="D42">
-        <v>1.23322084856722</v>
+        <v>1.228672142557267</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1318,7 +1318,7 @@
         <v>104</v>
       </c>
       <c r="D43">
-        <v>1.43004180084213</v>
+        <v>1.429489477201075</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1332,7 +1332,7 @@
         <v>105</v>
       </c>
       <c r="D44">
-        <v>3.090842344925982</v>
+        <v>3.124012010412203</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1346,7 +1346,7 @@
         <v>109</v>
       </c>
       <c r="D45">
-        <v>0.7183936905097111</v>
+        <v>0.7033915944835475</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1360,7 +1360,7 @@
         <v>96</v>
       </c>
       <c r="D46">
-        <v>0.1982819433671116</v>
+        <v>0.1727191555440975</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1374,7 +1374,7 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>0.9280666653844792</v>
+        <v>0.9173219076667583</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1388,7 +1388,7 @@
         <v>98</v>
       </c>
       <c r="D48">
-        <v>2.232352009942557</v>
+        <v>2.248090321708845</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1402,7 +1402,7 @@
         <v>99</v>
       </c>
       <c r="D49">
-        <v>2.616035766810471</v>
+        <v>2.63956464651913</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1416,7 +1416,7 @@
         <v>100</v>
       </c>
       <c r="D50">
-        <v>2.584667235086227</v>
+        <v>2.6075591874471</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1430,7 +1430,7 @@
         <v>101</v>
       </c>
       <c r="D51">
-        <v>0.8035874328870872</v>
+        <v>0.7903151667699971</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1444,7 +1444,7 @@
         <v>102</v>
       </c>
       <c r="D52">
-        <v>0.4977530556165718</v>
+        <v>0.4782709266825397</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1458,7 +1458,7 @@
         <v>103</v>
       </c>
       <c r="D53">
-        <v>1.126636224775925</v>
+        <v>1.119923354298764</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1472,7 +1472,7 @@
         <v>104</v>
       </c>
       <c r="D54">
-        <v>0.7927646219004856</v>
+        <v>0.779272602294202</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1486,7 +1486,7 @@
         <v>105</v>
       </c>
       <c r="D55">
-        <v>5.683110192456891</v>
+        <v>5.76891497326796</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1500,7 +1500,7 @@
         <v>110</v>
       </c>
       <c r="D56">
-        <v>74.61846635359377</v>
+        <v>76.1039800514278</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1514,7 +1514,7 @@
         <v>96</v>
       </c>
       <c r="D57">
-        <v>0.7070671228394937</v>
+        <v>0.6918350447163318</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1528,7 +1528,7 @@
         <v>97</v>
       </c>
       <c r="D58">
-        <v>0.5643298482544146</v>
+        <v>0.546199538408749</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1542,7 +1542,7 @@
         <v>98</v>
       </c>
       <c r="D59">
-        <v>0.8308476179484814</v>
+        <v>0.8181288606001129</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1556,7 +1556,7 @@
         <v>99</v>
       </c>
       <c r="D60">
-        <v>1.312959770396356</v>
+        <v>1.310030136022982</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1570,7 +1570,7 @@
         <v>100</v>
       </c>
       <c r="D61">
-        <v>1.602961224929718</v>
+        <v>1.605919971272201</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1584,7 +1584,7 @@
         <v>101</v>
       </c>
       <c r="D62">
-        <v>0.8377131637010463</v>
+        <v>0.8251338089197383</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1598,7 +1598,7 @@
         <v>102</v>
       </c>
       <c r="D63">
-        <v>0.2240343306699593</v>
+        <v>0.1989944362959639</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1612,7 +1612,7 @@
         <v>103</v>
       </c>
       <c r="D64">
-        <v>1.136494857622892</v>
+        <v>1.129982163326344</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1626,7 +1626,7 @@
         <v>104</v>
       </c>
       <c r="D65">
-        <v>4.414070386120497</v>
+        <v>4.474107746091176</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1640,7 +1640,7 @@
         <v>105</v>
       </c>
       <c r="D66">
-        <v>2.127705885156816</v>
+        <v>2.141319393017658</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1654,7 +1654,7 @@
         <v>111</v>
       </c>
       <c r="D67">
-        <v>69.99586765468551</v>
+        <v>71.38752106109584</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1668,7 +1668,7 @@
         <v>96</v>
       </c>
       <c r="D68">
-        <v>0.6960653457900114</v>
+        <v>0.6806098803327322</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1682,7 +1682,7 @@
         <v>97</v>
       </c>
       <c r="D69">
-        <v>0.3253964349180427</v>
+        <v>0.3024146635315111</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1696,7 +1696,7 @@
         <v>98</v>
       </c>
       <c r="D70">
-        <v>0.9098693741269792</v>
+        <v>0.8987551266110297</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1710,7 +1710,7 @@
         <v>99</v>
       </c>
       <c r="D71">
-        <v>1.010186983340412</v>
+        <v>1.001109650696162</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1724,7 +1724,7 @@
         <v>100</v>
       </c>
       <c r="D72">
-        <v>0.7020567226967108</v>
+        <v>0.6867229101059512</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1738,7 +1738,7 @@
         <v>101</v>
       </c>
       <c r="D73">
-        <v>0.854763181916274</v>
+        <v>0.8425300219450061</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1752,7 +1752,7 @@
         <v>102</v>
       </c>
       <c r="D74">
-        <v>1.162747995477575</v>
+        <v>1.156768362199369</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1766,7 +1766,7 @@
         <v>103</v>
       </c>
       <c r="D75">
-        <v>0.481315079765765</v>
+        <v>0.4614991833333478</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1780,7 +1780,7 @@
         <v>104</v>
       </c>
       <c r="D76">
-        <v>2.064946992233001</v>
+        <v>2.077286202158214</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1794,7 +1794,7 @@
         <v>105</v>
       </c>
       <c r="D77">
-        <v>1.174597301981785</v>
+        <v>1.168858264834477</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1808,7 +1808,7 @@
         <v>112</v>
       </c>
       <c r="D78">
-        <v>36.14584584952357</v>
+        <v>36.85018609762722</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1822,7 +1822,7 @@
         <v>96</v>
       </c>
       <c r="D79">
-        <v>0.1678597130139073</v>
+        <v>0.1416792121699934</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1836,7 +1836,7 @@
         <v>97</v>
       </c>
       <c r="D80">
-        <v>0.8584345218847844</v>
+        <v>0.8462759072205625</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1850,7 +1850,7 @@
         <v>98</v>
       </c>
       <c r="D81">
-        <v>1.35088804913976</v>
+        <v>1.348728535542152</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1864,7 +1864,7 @@
         <v>99</v>
       </c>
       <c r="D82">
-        <v>3.123700940699893</v>
+        <v>3.157537788776686</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1878,7 +1878,7 @@
         <v>100</v>
       </c>
       <c r="D83">
-        <v>1.865934264631294</v>
+        <v>1.874232588936449</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1892,7 +1892,7 @@
         <v>101</v>
       </c>
       <c r="D84">
-        <v>0.5597851818252393</v>
+        <v>0.5415625940763314</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1906,7 +1906,7 @@
         <v>102</v>
       </c>
       <c r="D85">
-        <v>0.5335258169223407</v>
+        <v>0.5147700417169986</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1920,7 +1920,7 @@
         <v>103</v>
       </c>
       <c r="D86">
-        <v>1.713709681933586</v>
+        <v>1.718917137957825</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1934,7 +1934,7 @@
         <v>104</v>
       </c>
       <c r="D87">
-        <v>3.913422155298492</v>
+        <v>3.963294023538988</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1948,7 +1948,7 @@
         <v>105</v>
       </c>
       <c r="D88">
-        <v>1.420942870614989</v>
+        <v>1.420205796296147</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1962,7 +1962,7 @@
         <v>113</v>
       </c>
       <c r="D89">
-        <v>48.12683329479767</v>
+        <v>49.07444341043766</v>
       </c>
     </row>
   </sheetData>
